--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Egyetem\Matematika BsC\szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Egyetem\Matematika BsC\szakdolgozat\szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{794CA84A-D13D-472B-9C6F-1780409C0573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7A639-5291-411C-B1F3-5A7CB569B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +862,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1025,8 +1031,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1381,11 +1388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1441,10 +1448,10 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1458,10 +1465,10 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1475,10 +1482,10 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1713,10 +1720,10 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1730,10 +1737,10 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1747,10 +1754,10 @@
       <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1781,10 +1788,10 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1798,10 +1805,10 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1815,10 +1822,10 @@
       <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1849,10 +1856,10 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1866,10 +1873,10 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1883,10 +1890,10 @@
       <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1917,10 +1924,10 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1934,10 +1941,10 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1951,10 +1958,10 @@
       <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1968,10 +1975,10 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1985,10 +1992,10 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2002,10 +2009,10 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2019,10 +2026,10 @@
       <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2053,10 +2060,10 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2070,10 +2077,10 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2087,10 +2094,10 @@
       <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2121,10 +2128,10 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2138,10 +2145,10 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2155,10 +2162,10 @@
       <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2189,10 +2196,10 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2206,10 +2213,10 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2223,10 +2230,10 @@
       <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2240,10 +2247,10 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2257,10 +2264,10 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2274,10 +2281,10 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2291,10 +2298,10 @@
       <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2325,10 +2332,10 @@
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="1" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2342,10 +2349,10 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2359,10 +2366,10 @@
       <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2393,10 +2400,10 @@
       <c r="C59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2410,10 +2417,10 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2427,10 +2434,10 @@
       <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2461,10 +2468,10 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2478,10 +2485,10 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2495,10 +2502,10 @@
       <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2512,10 +2519,10 @@
       <c r="C66" t="s">
         <v>4</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2529,10 +2536,10 @@
       <c r="C67" t="s">
         <v>6</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2546,10 +2553,10 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2563,10 +2570,10 @@
       <c r="C69" t="s">
         <v>10</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2597,10 +2604,10 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2614,10 +2621,10 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2631,10 +2638,10 @@
       <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2665,10 +2672,10 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2682,10 +2689,10 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2699,10 +2706,10 @@
       <c r="C77" t="s">
         <v>10</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2733,10 +2740,10 @@
       <c r="C79" t="s">
         <v>6</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2750,10 +2757,10 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2767,10 +2774,10 @@
       <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2784,10 +2791,10 @@
       <c r="C82" t="s">
         <v>4</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2801,10 +2808,10 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2818,10 +2825,10 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2835,10 +2842,10 @@
       <c r="C85" t="s">
         <v>10</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2869,10 +2876,10 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2886,10 +2893,10 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2903,10 +2910,10 @@
       <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2937,10 +2944,10 @@
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2954,10 +2961,10 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2971,10 +2978,10 @@
       <c r="C93" t="s">
         <v>10</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3005,10 +3012,10 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3022,10 +3029,10 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3039,15 +3046,15 @@
       <c r="C97" t="s">
         <v>10</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="1" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D97"/>
+  <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Egyetem\Matematika BsC\szakdolgozat\szakdolgozat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Egyetem\Matematika BsC\6\Szakdolgozat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A7A639-5291-411C-B1F3-5A7CB569B102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D56CAE-3AED-49C1-B177-F3A8785A5851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="result_0-5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$D$97</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="261">
   <si>
     <t>Equation</t>
   </si>
@@ -91,6 +88,261 @@
     <t>3.80135478021105e-12</t>
   </si>
   <si>
+    <t>6.12721001417695e-11</t>
+  </si>
+  <si>
+    <t>3.40403650427915e-11</t>
+  </si>
+  <si>
+    <t>1.80213697290787e-11</t>
+  </si>
+  <si>
+    <t>2.60003574480194e-12</t>
+  </si>
+  <si>
+    <t>5.66401736907304e-11</t>
+  </si>
+  <si>
+    <t>3.14670609759290e-11</t>
+  </si>
+  <si>
+    <t>1.66590322818960e-11</t>
+  </si>
+  <si>
+    <t>2.60003270848853e-12</t>
+  </si>
+  <si>
+    <t>5.66401614923208e-11</t>
+  </si>
+  <si>
+    <t>3.14670541990056e-11</t>
+  </si>
+  <si>
+    <t>1.66590286941131e-11</t>
+  </si>
+  <si>
+    <t>2.60003270054484e-12</t>
+  </si>
+  <si>
+    <t>5.66401614597291e-11</t>
+  </si>
+  <si>
+    <t>3.14670541808990e-11</t>
+  </si>
+  <si>
+    <t>1.66590286845272e-11</t>
+  </si>
+  <si>
+    <t>linear2d</t>
+  </si>
+  <si>
+    <t>8.20049825598915e-11</t>
+  </si>
+  <si>
+    <t>3.21602321876614e-10</t>
+  </si>
+  <si>
+    <t>3.21602001326126e-10</t>
+  </si>
+  <si>
+    <t>3.21602001315441e-10</t>
+  </si>
+  <si>
+    <t>3.20800000047704e-12</t>
+  </si>
+  <si>
+    <t>8.20045003325172e-11</t>
+  </si>
+  <si>
+    <t>8.20042334034641e-11</t>
+  </si>
+  <si>
+    <t>8.20042333982727e-11</t>
+  </si>
+  <si>
+    <t>3.20821334024613e-12</t>
+  </si>
+  <si>
+    <t>8.20047671684732e-11</t>
+  </si>
+  <si>
+    <t>8.20045002322554e-11</t>
+  </si>
+  <si>
+    <t>8.20045002270640e-11</t>
+  </si>
+  <si>
+    <t>3.20821334264265e-12</t>
+  </si>
+  <si>
+    <t>8.20047671962165e-11</t>
+  </si>
+  <si>
+    <t>8.20045002599987e-11</t>
+  </si>
+  <si>
+    <t>8.20045002548073e-11</t>
+  </si>
+  <si>
+    <t>lotka_volterra</t>
+  </si>
+  <si>
+    <t>linear3d</t>
+  </si>
+  <si>
+    <t>4.10036162736932e-11</t>
+  </si>
+  <si>
+    <t>1.60805660945326e-10</t>
+  </si>
+  <si>
+    <t>1.60805500656582e-10</t>
+  </si>
+  <si>
+    <t>1.60805500651240e-10</t>
+  </si>
+  <si>
+    <t>1.62200000841357e-12</t>
+  </si>
+  <si>
+    <t>4.10033751683595e-11</t>
+  </si>
+  <si>
+    <t>4.10032417105826e-11</t>
+  </si>
+  <si>
+    <t>4.10032417079869e-11</t>
+  </si>
+  <si>
+    <t>1.62210665119558e-12</t>
+  </si>
+  <si>
+    <t>4.10035085794121e-11</t>
+  </si>
+  <si>
+    <t>4.10033751180528e-11</t>
+  </si>
+  <si>
+    <t>4.10033751154571e-11</t>
+  </si>
+  <si>
+    <t>1.62210665343971e-12</t>
+  </si>
+  <si>
+    <t>4.10035085931422e-11</t>
+  </si>
+  <si>
+    <t>4.10033751317829e-11</t>
+  </si>
+  <si>
+    <t>4.10033751291872e-11</t>
+  </si>
+  <si>
+    <t>lorenz</t>
+  </si>
+  <si>
+    <t>0.0999950521520550</t>
+  </si>
+  <si>
+    <t>2.69069123714368e-7</t>
+  </si>
+  <si>
+    <t>2.69071934026997e-7</t>
+  </si>
+  <si>
+    <t>9.60971194182300e-8</t>
+  </si>
+  <si>
+    <t>0.0999996001757506</t>
+  </si>
+  <si>
+    <t>4.01136892425506e-7</t>
+  </si>
+  <si>
+    <t>4.01079111042743e-7</t>
+  </si>
+  <si>
+    <t>1.43242540901475e-7</t>
+  </si>
+  <si>
+    <t>0.0999995990098033</t>
+  </si>
+  <si>
+    <t>4.01087432686628e-7</t>
+  </si>
+  <si>
+    <t>4.01029656476808e-7</t>
+  </si>
+  <si>
+    <t>1.43224878556406e-7</t>
+  </si>
+  <si>
+    <t>0.0999995990097907</t>
+  </si>
+  <si>
+    <t>4.01087431100515e-7</t>
+  </si>
+  <si>
+    <t>4.01029654890843e-7</t>
+  </si>
+  <si>
+    <t>1.43224877989990e-7</t>
+  </si>
+  <si>
+    <t>rossler</t>
+  </si>
+  <si>
+    <t>0.0500046508795053</t>
+  </si>
+  <si>
+    <t>3.60187082979453e-9</t>
+  </si>
+  <si>
+    <t>3.63645217882607e-9</t>
+  </si>
+  <si>
+    <t>1.29873292149460e-9</t>
+  </si>
+  <si>
+    <t>0.0499997996051251</t>
+  </si>
+  <si>
+    <t>1.33643691814549e-9</t>
+  </si>
+  <si>
+    <t>1.33762930198190e-9</t>
+  </si>
+  <si>
+    <t>4.77724751013288e-10</t>
+  </si>
+  <si>
+    <t>0.0499997997315784</t>
+  </si>
+  <si>
+    <t>1.33642637944191e-9</t>
+  </si>
+  <si>
+    <t>1.33762012256989e-9</t>
+  </si>
+  <si>
+    <t>4.77721472651854e-10</t>
+  </si>
+  <si>
+    <t>0.0499997997169562</t>
+  </si>
+  <si>
+    <t>1.33641214558622e-9</t>
+  </si>
+  <si>
+    <t>1.33760589485014e-9</t>
+  </si>
+  <si>
+    <t>4.77716391323372e-10</t>
+  </si>
+  <si>
+    <t>Squared deviation (0,5)-n</t>
+  </si>
+  <si>
     <t>7.65901251772119e-11</t>
   </si>
   <si>
@@ -100,9 +352,6 @@
     <t>7.65908213485844e-11</t>
   </si>
   <si>
-    <t>2.60003574480194e-12</t>
-  </si>
-  <si>
     <t>7.08002171134130e-11</t>
   </si>
   <si>
@@ -112,9 +361,6 @@
     <t>7.08008871980579e-11</t>
   </si>
   <si>
-    <t>2.60003270848853e-12</t>
-  </si>
-  <si>
     <t>7.08002018654010e-11</t>
   </si>
   <si>
@@ -124,9 +370,6 @@
     <t>7.08008719499804e-11</t>
   </si>
   <si>
-    <t>2.60003270054484e-12</t>
-  </si>
-  <si>
     <t>7.08002018246613e-11</t>
   </si>
   <si>
@@ -136,9 +379,6 @@
     <t>7.08008719092405e-11</t>
   </si>
   <si>
-    <t>linear2d</t>
-  </si>
-  <si>
     <t>4.10024912799457e-11</t>
   </si>
   <si>
@@ -187,12 +427,6 @@
     <t>4.10022501274036e-11</t>
   </si>
   <si>
-    <t>lotka_volterra</t>
-  </si>
-  <si>
-    <t>linear3d</t>
-  </si>
-  <si>
     <t>1.36678720912311e-11</t>
   </si>
   <si>
@@ -241,9 +475,6 @@
     <t>1.36677917097291e-11</t>
   </si>
   <si>
-    <t>lorenz</t>
-  </si>
-  <si>
     <t>1.74068688952249e-7</t>
   </si>
   <si>
@@ -292,244 +523,292 @@
     <t>1.33676552790657e-7</t>
   </si>
   <si>
-    <t>Squared deviation (0,5)-n</t>
-  </si>
-  <si>
-    <t>6.26729895884658e-13</t>
-  </si>
-  <si>
-    <t>2.00693332238106e-12</t>
-  </si>
-  <si>
-    <t>2.00693627376310e-12</t>
-  </si>
-  <si>
-    <t>2.77776531538966e-14</t>
-  </si>
-  <si>
-    <t>6.26735519109688e-13</t>
-  </si>
-  <si>
-    <t>6.26737168415686e-13</t>
-  </si>
-  <si>
-    <t>2.77773053321440e-14</t>
-  </si>
-  <si>
-    <t>6.26733866949354e-13</t>
-  </si>
-  <si>
-    <t>6.26735516253178e-13</t>
-  </si>
-  <si>
-    <t>2.77773047030229e-14</t>
-  </si>
-  <si>
-    <t>6.26733863961009e-13</t>
-  </si>
-  <si>
-    <t>6.26735513264829e-13</t>
-  </si>
-  <si>
-    <t>1.62454095329065e-13</t>
-  </si>
-  <si>
-    <t>5.23010485250549e-11</t>
-  </si>
-  <si>
-    <t>5.23016298786817e-11</t>
-  </si>
-  <si>
-    <t>5.23016298806090e-11</t>
-  </si>
-  <si>
-    <t>2.88899363926322e-13</t>
-  </si>
-  <si>
-    <t>5.41957277670200e-11</t>
-  </si>
-  <si>
-    <t>5.41963187739231e-11</t>
-  </si>
-  <si>
-    <t>5.41963187758819e-11</t>
-  </si>
-  <si>
-    <t>2.88896926464788e-13</t>
-  </si>
-  <si>
-    <t>5.41956952386253e-11</t>
-  </si>
-  <si>
-    <t>5.41962862453623e-11</t>
-  </si>
-  <si>
-    <t>5.41962862473212e-11</t>
-  </si>
-  <si>
-    <t>2.88896922619662e-13</t>
-  </si>
-  <si>
-    <t>5.41956951873070e-11</t>
-  </si>
-  <si>
-    <t>5.41962861940438e-11</t>
-  </si>
-  <si>
-    <t>5.41962861960026e-11</t>
-  </si>
-  <si>
-    <t>4.01112720172266e-11</t>
-  </si>
-  <si>
-    <t>1.60444714953130e-10</t>
-  </si>
-  <si>
-    <t>1.60444625788712e-10</t>
-  </si>
-  <si>
-    <t>1.60444625783269e-10</t>
-  </si>
-  <si>
-    <t>1.78222220842413e-13</t>
-  </si>
-  <si>
-    <t>4.01111384329385e-11</t>
-  </si>
-  <si>
-    <t>4.01110760792746e-11</t>
-  </si>
-  <si>
-    <t>4.01110760765782e-11</t>
-  </si>
-  <si>
-    <t>1.78257778990875e-13</t>
-  </si>
-  <si>
-    <t>4.01112007656808e-11</t>
-  </si>
-  <si>
-    <t>4.01111384084344e-11</t>
-  </si>
-  <si>
-    <t>4.01111384057381e-11</t>
-  </si>
-  <si>
-    <t>1.78257778080582e-13</t>
-  </si>
-  <si>
-    <t>4.01112007595135e-11</t>
-  </si>
-  <si>
-    <t>4.01111384022672e-11</t>
-  </si>
-  <si>
-    <t>4.01111383995708e-11</t>
-  </si>
-  <si>
-    <t>1.33714656790220e-11</t>
-  </si>
-  <si>
-    <t>5.34897383361032e-11</t>
-  </si>
-  <si>
-    <t>5.34897086041312e-11</t>
-  </si>
-  <si>
-    <t>5.34897086023169e-11</t>
-  </si>
-  <si>
-    <t>6.00740752605145e-14</t>
-  </si>
-  <si>
-    <t>1.33714211422625e-11</t>
-  </si>
-  <si>
-    <t>1.33714003539581e-11</t>
-  </si>
-  <si>
-    <t>1.33714003530593e-11</t>
-  </si>
-  <si>
-    <t>6.00859251303090e-14</t>
-  </si>
-  <si>
-    <t>1.33714419238098e-11</t>
-  </si>
-  <si>
-    <t>1.33714211343112e-11</t>
-  </si>
-  <si>
-    <t>1.33714211334124e-11</t>
-  </si>
-  <si>
-    <t>6.00859249740282e-14</t>
-  </si>
-  <si>
-    <t>1.33714419216347e-11</t>
-  </si>
-  <si>
-    <t>1.33714211321361e-11</t>
-  </si>
-  <si>
-    <t>1.33714211312373e-11</t>
-  </si>
-  <si>
-    <t>1.44339808287039e-7</t>
-  </si>
-  <si>
-    <t>8.15977511579511e-8</t>
-  </si>
-  <si>
-    <t>8.15960258068271e-8</t>
-  </si>
-  <si>
-    <t>8.15960260204361e-8</t>
-  </si>
-  <si>
-    <t>7.37358525871351e-12</t>
-  </si>
-  <si>
-    <t>1.36731975106904e-7</t>
-  </si>
-  <si>
-    <t>1.36711570764991e-7</t>
-  </si>
-  <si>
-    <t>1.36711571940891e-7</t>
-  </si>
-  <si>
-    <t>7.49861937060602e-12</t>
-  </si>
-  <si>
-    <t>1.36719198206196e-7</t>
-  </si>
-  <si>
-    <t>1.36698795174894e-7</t>
-  </si>
-  <si>
-    <t>1.36698796350729e-7</t>
-  </si>
-  <si>
-    <t>7.49862262949482e-12</t>
-  </si>
-  <si>
-    <t>1.36719197815880e-7</t>
-  </si>
-  <si>
-    <t>1.36698794784614e-7</t>
-  </si>
-  <si>
-    <t>1.36698795960449e-7</t>
-  </si>
-  <si>
-    <t>Squared deviation (0,15)-n</t>
+    <t>7.65618401201373e-13</t>
+  </si>
+  <si>
+    <t>2.24998868769264e-12</t>
+  </si>
+  <si>
+    <t>2.24999181268613e-12</t>
+  </si>
+  <si>
+    <t>6.24999927871450e-14</t>
+  </si>
+  <si>
+    <t>7.65624974713600e-13</t>
+  </si>
+  <si>
+    <t>7.65626797631473e-13</t>
+  </si>
+  <si>
+    <t>6.24994707752767e-14</t>
+  </si>
+  <si>
+    <t>7.65623147669261e-13</t>
+  </si>
+  <si>
+    <t>7.65624970584958e-13</t>
+  </si>
+  <si>
+    <t>6.24994715940627e-14</t>
+  </si>
+  <si>
+    <t>7.65623150535021e-13</t>
+  </si>
+  <si>
+    <t>7.65624973450721e-13</t>
+  </si>
+  <si>
+    <t>5.57035828390344e-13</t>
+  </si>
+  <si>
+    <t>4.58189829867410e-11</t>
+  </si>
+  <si>
+    <t>2.54552602241110e-11</t>
+  </si>
+  <si>
+    <t>1.34763142367671e-11</t>
+  </si>
+  <si>
+    <t>6.50018835224019e-13</t>
+  </si>
+  <si>
+    <t>4.65041655985588e-11</t>
+  </si>
+  <si>
+    <t>2.58359190107126e-11</t>
+  </si>
+  <si>
+    <t>1.36778394767357e-11</t>
+  </si>
+  <si>
+    <t>6.50015536097183e-13</t>
+  </si>
+  <si>
+    <t>4.65041412739882e-11</t>
+  </si>
+  <si>
+    <t>2.58359054969958e-11</t>
+  </si>
+  <si>
+    <t>1.36778323224151e-11</t>
+  </si>
+  <si>
+    <t>6.50015531756159e-13</t>
+  </si>
+  <si>
+    <t>4.65041412417384e-11</t>
+  </si>
+  <si>
+    <t>2.58359054790792e-11</t>
+  </si>
+  <si>
+    <t>1.36778323129298e-11</t>
+  </si>
+  <si>
+    <t>8.04008239640672e-11</t>
+  </si>
+  <si>
+    <t>3.20800327068076e-10</t>
+  </si>
+  <si>
+    <t>3.20800113183823e-10</t>
+  </si>
+  <si>
+    <t>3.20800113172987e-10</t>
+  </si>
+  <si>
+    <t>8.02000023462992e-13</t>
+  </si>
+  <si>
+    <t>8.04005032883037e-11</t>
+  </si>
+  <si>
+    <t>8.04003430255401e-11</t>
+  </si>
+  <si>
+    <t>8.04003430201977e-11</t>
+  </si>
+  <si>
+    <t>8.02106696645162e-13</t>
+  </si>
+  <si>
+    <t>8.04006635081471e-11</t>
+  </si>
+  <si>
+    <t>8.04005032382188e-11</t>
+  </si>
+  <si>
+    <t>8.04005032328764e-11</t>
+  </si>
+  <si>
+    <t>8.02106698003058e-13</t>
+  </si>
+  <si>
+    <t>8.04006635132670e-11</t>
+  </si>
+  <si>
+    <t>8.04005032433386e-11</t>
+  </si>
+  <si>
+    <t>8.04005032379962e-11</t>
+  </si>
+  <si>
+    <t>4.02015369908500e-11</t>
+  </si>
+  <si>
+    <t>1.60418163569193e-10</t>
+  </si>
+  <si>
+    <t>1.60418056600068e-10</t>
+  </si>
+  <si>
+    <t>1.60418056594650e-10</t>
+  </si>
+  <si>
+    <t>4.05500020982137e-13</t>
+  </si>
+  <si>
+    <t>4.02013766394142e-11</t>
+  </si>
+  <si>
+    <t>4.02012965012828e-11</t>
+  </si>
+  <si>
+    <t>4.02012964986116e-11</t>
+  </si>
+  <si>
+    <t>4.05553345057601e-13</t>
+  </si>
+  <si>
+    <t>4.02014567560550e-11</t>
+  </si>
+  <si>
+    <t>4.02013766143411e-11</t>
+  </si>
+  <si>
+    <t>4.02013766116699e-11</t>
+  </si>
+  <si>
+    <t>4.05553344036686e-13</t>
+  </si>
+  <si>
+    <t>4.02014567591788e-11</t>
+  </si>
+  <si>
+    <t>4.02013766174650e-11</t>
+  </si>
+  <si>
+    <t>4.02013766147938e-11</t>
+  </si>
+  <si>
+    <t>0.0999952063297891</t>
+  </si>
+  <si>
+    <t>2.57776955696051e-7</t>
+  </si>
+  <si>
+    <t>2.57776241127372e-7</t>
+  </si>
+  <si>
+    <t>9.20629434512335e-8</t>
+  </si>
+  <si>
+    <t>0.0999998000335556</t>
+  </si>
+  <si>
+    <t>4.07914015045034e-7</t>
+  </si>
+  <si>
+    <t>4.07855534606394e-7</t>
+  </si>
+  <si>
+    <t>1.45662692186615e-7</t>
+  </si>
+  <si>
+    <t>0.0999997990273706</t>
+  </si>
+  <si>
+    <t>4.07870182240466e-7</t>
+  </si>
+  <si>
+    <t>4.07811706319919e-7</t>
+  </si>
+  <si>
+    <t>1.45647039227080e-7</t>
+  </si>
+  <si>
+    <t>0.0999997990273592</t>
+  </si>
+  <si>
+    <t>4.07870180855512e-7</t>
+  </si>
+  <si>
+    <t>4.07811704935094e-7</t>
+  </si>
+  <si>
+    <t>1.45647038732499e-7</t>
+  </si>
+  <si>
+    <t>0.0500027659991162</t>
+  </si>
+  <si>
+    <t>1.36702741873855e-8</t>
+  </si>
+  <si>
+    <t>1.36714210254256e-8</t>
+  </si>
+  <si>
+    <t>4.88265036679178e-9</t>
+  </si>
+  <si>
+    <t>0.0499999000018553</t>
+  </si>
+  <si>
+    <t>1.43246081583604e-9</t>
+  </si>
+  <si>
+    <t>1.43365137229743e-9</t>
+  </si>
+  <si>
+    <t>5.12018347564811e-10</t>
+  </si>
+  <si>
+    <t>0.0499999000555939</t>
+  </si>
+  <si>
+    <t>1.43250147483462e-9</t>
+  </si>
+  <si>
+    <t>1.43369203061073e-9</t>
+  </si>
+  <si>
+    <t>5.12032868390994e-10</t>
+  </si>
+  <si>
+    <t>0.0499999000555937</t>
+  </si>
+  <si>
+    <t>1.43250147806556e-9</t>
+  </si>
+  <si>
+    <t>1.43369203384157e-9</t>
+  </si>
+  <si>
+    <t>5.12032869544868e-10</t>
+  </si>
+  <si>
+    <t>Squared deviation (0,5)-n (régi)</t>
+  </si>
+  <si>
+    <t>Squared deviation  (0,10)-n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1388,23 +1667,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1415,13 +1694,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1435,10 +1717,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1451,11 +1736,14 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1468,11 +1756,14 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1485,11 +1776,14 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1503,10 +1797,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1520,10 +1817,13 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1537,10 +1837,13 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1554,10 +1857,13 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1571,10 +1877,13 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1588,10 +1897,13 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1605,10 +1917,13 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1622,10 +1937,13 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1639,10 +1957,13 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1656,10 +1977,13 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1673,10 +1997,13 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1690,10 +2017,13 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1707,10 +2037,13 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1721,13 +2054,16 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1738,13 +2074,16 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1755,13 +2094,16 @@
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1775,10 +2117,13 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1789,13 +2134,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1806,13 +2154,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1823,13 +2174,16 @@
         <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1843,10 +2197,13 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1857,13 +2214,16 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1874,13 +2234,16 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1891,13 +2254,16 @@
         <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1911,10 +2277,13 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1925,13 +2294,16 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1942,13 +2314,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1959,13 +2334,16 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1976,13 +2354,16 @@
         <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1993,13 +2374,16 @@
         <v>6</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -2010,13 +2394,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2027,13 +2414,16 @@
         <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2044,13 +2434,16 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2061,13 +2454,16 @@
         <v>6</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2078,13 +2474,16 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2095,13 +2494,16 @@
         <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -2112,13 +2514,16 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" t="s">
         <v>46</v>
       </c>
-      <c r="E42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -2129,13 +2534,16 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2146,13 +2554,16 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -2163,13 +2574,16 @@
         <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E45" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -2180,13 +2594,16 @@
         <v>4</v>
       </c>
       <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
         <v>50</v>
       </c>
-      <c r="E46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2197,13 +2614,16 @@
         <v>6</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -2214,13 +2634,16 @@
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2231,13 +2654,16 @@
         <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2248,13 +2674,16 @@
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2265,13 +2694,16 @@
         <v>6</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2282,13 +2714,16 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2299,13 +2734,16 @@
         <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2316,13 +2754,16 @@
         <v>4</v>
       </c>
       <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
         <v>42</v>
       </c>
-      <c r="E54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2333,13 +2774,16 @@
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2350,13 +2794,16 @@
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2367,13 +2814,16 @@
         <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -2384,13 +2834,16 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" t="s">
         <v>46</v>
       </c>
-      <c r="E58" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -2401,13 +2854,16 @@
         <v>6</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -2418,13 +2874,16 @@
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -2435,13 +2894,16 @@
         <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -2452,13 +2914,16 @@
         <v>4</v>
       </c>
       <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
         <v>50</v>
       </c>
-      <c r="E62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -2469,13 +2934,16 @@
         <v>6</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
         <v>51</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -2486,13 +2954,16 @@
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -2503,13 +2974,16 @@
         <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -2520,13 +2994,16 @@
         <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -2537,13 +3014,16 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -2554,13 +3034,16 @@
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -2571,13 +3054,16 @@
         <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -2588,13 +3074,16 @@
         <v>4</v>
       </c>
       <c r="D70" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" t="s">
         <v>60</v>
       </c>
-      <c r="E70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -2605,13 +3094,16 @@
         <v>6</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -2622,13 +3114,16 @@
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" t="s">
         <v>62</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -2639,13 +3134,16 @@
         <v>10</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>55</v>
       </c>
@@ -2656,13 +3154,16 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" t="s">
         <v>64</v>
       </c>
-      <c r="E74" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>55</v>
       </c>
@@ -2673,13 +3174,16 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E75" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>55</v>
       </c>
@@ -2690,13 +3194,16 @@
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>55</v>
       </c>
@@ -2707,13 +3214,16 @@
         <v>10</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" t="s">
         <v>67</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -2724,13 +3234,16 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" t="s">
         <v>68</v>
       </c>
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -2741,13 +3254,16 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" t="s">
         <v>69</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -2758,13 +3274,16 @@
         <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" t="s">
         <v>70</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -2775,13 +3294,16 @@
         <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E81" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -2792,13 +3314,16 @@
         <v>4</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>72</v>
       </c>
@@ -2809,13 +3334,16 @@
         <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" t="s">
         <v>74</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>72</v>
       </c>
@@ -2826,13 +3354,16 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E84" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>72</v>
       </c>
@@ -2843,13 +3374,16 @@
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E85" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>72</v>
       </c>
@@ -2860,13 +3394,16 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" t="s">
         <v>77</v>
       </c>
-      <c r="E86" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>72</v>
       </c>
@@ -2877,13 +3414,16 @@
         <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" t="s">
         <v>78</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>72</v>
       </c>
@@ -2894,13 +3434,16 @@
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -2911,13 +3454,16 @@
         <v>10</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E89" t="s">
         <v>80</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -2928,13 +3474,16 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" t="s">
         <v>81</v>
       </c>
-      <c r="E90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>72</v>
       </c>
@@ -2945,13 +3494,16 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" t="s">
         <v>82</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>72</v>
       </c>
@@ -2962,13 +3514,16 @@
         <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E92" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>72</v>
       </c>
@@ -2979,13 +3534,16 @@
         <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" t="s">
         <v>84</v>
       </c>
-      <c r="E93" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>72</v>
       </c>
@@ -2996,13 +3554,16 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" t="s">
         <v>85</v>
       </c>
-      <c r="E94" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>72</v>
       </c>
@@ -3013,13 +3574,16 @@
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>72</v>
       </c>
@@ -3030,13 +3594,16 @@
         <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" t="s">
         <v>87</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -3047,14 +3614,288 @@
         <v>10</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" t="s">
         <v>88</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>165</v>
+      <c r="F97" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>97</v>
+      </c>
+      <c r="F105" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>102</v>
+      </c>
+      <c r="F110" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>103</v>
+      </c>
+      <c r="F111" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>89</v>
+      </c>
+      <c r="B112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>